--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject10.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject10.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="11.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.57772098052614185</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -158,7 +158,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -218,7 +218,7 @@
         <v>0</v>
       </c>
       <c r="AE1" s="0">
-        <v>0</v>
+        <v>0.55588402838376794</v>
       </c>
       <c r="AF1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -334,13 +334,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.63580578533769971</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -367,7 +367,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>0</v>
+        <v>0.89033605002675942</v>
       </c>
       <c r="M2" s="0">
         <v>0</v>
@@ -406,7 +406,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="0">
-        <v>0</v>
+        <v>0.96430097540057458</v>
       </c>
       <c r="Z2" s="0">
         <v>0</v>
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="0">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="AN2" s="0">
-        <v>0</v>
+        <v>0.93164200996531576</v>
       </c>
       <c r="AO2" s="0">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="BH2" s="0">
-        <v>0</v>
+        <v>0.64909502129083918</v>
       </c>
       <c r="BI2" s="0">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="BM2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="0">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="0">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="0">
-        <v>0</v>
+        <v>0.52555744240918956</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="AE3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="0">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="AV3" s="0">
-        <v>0</v>
+        <v>0.5762531206922874</v>
       </c>
       <c r="AW3" s="0">
         <v>0</v>
       </c>
       <c r="AX3" s="0">
-        <v>0</v>
+        <v>0.79613775929948882</v>
       </c>
       <c r="AY3" s="0">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0</v>
+        <v>0.80171983680901149</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>0</v>
+        <v>0.8731912041985217</v>
       </c>
       <c r="M4" s="0">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="0">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="0">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
@@ -929,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="0">
-        <v>0</v>
+        <v>0.72340722068845209</v>
       </c>
       <c r="BK4" s="0">
-        <v>0</v>
+        <v>0.83652838673076546</v>
       </c>
       <c r="BL4" s="0">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="0">
-        <v>0</v>
+        <v>0.59298243981927412</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="0">
-        <v>0</v>
+        <v>0.82065650290429071</v>
       </c>
       <c r="AF5" s="0">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="AL5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="0">
-        <v>0</v>
+        <v>0.88288140758701239</v>
       </c>
       <c r="AN5" s="0">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="0">
-        <v>0</v>
+        <v>0.59172427950348694</v>
       </c>
       <c r="AY5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="0">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="BO5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5" s="0">
         <v>0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -1176,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>0</v>
+        <v>0.74541349964024528</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="T6" s="0">
-        <v>0</v>
+        <v>0.60946630716141703</v>
       </c>
       <c r="U6" s="0">
-        <v>1</v>
+        <v>0.75057999664701391</v>
       </c>
       <c r="V6" s="0">
         <v>0</v>
@@ -1233,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>0</v>
+        <v>0.94428206821235716</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="AE6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0</v>
+        <v>0.79637088532279354</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>0</v>
+        <v>0.9620747574248929</v>
       </c>
       <c r="AZ6" s="0">
         <v>0</v>
@@ -1379,22 +1379,22 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.70157923852787518</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0</v>
+        <v>0.93439944339703551</v>
       </c>
       <c r="L7" s="0">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="0">
-        <v>0</v>
+        <v>0.57399486759998242</v>
       </c>
       <c r="AA7" s="0">
         <v>0</v>
@@ -1487,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="BC7" s="0">
-        <v>0</v>
+        <v>0.59061014199213269</v>
       </c>
       <c r="BD7" s="0">
-        <v>0</v>
+        <v>0.63370972352926813</v>
       </c>
       <c r="BE7" s="0">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="BG7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="0">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM7" s="0">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>0.76379480726513105</v>
       </c>
       <c r="E8" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.5366054924335244</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0</v>
+        <v>0.8174090806154275</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="0">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>1</v>
+        <v>0.55741926685827115</v>
       </c>
       <c r="AS8" s="0">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="BH8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="0">
         <v>0</v>
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>0</v>
+        <v>0.51538665659201943</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="0">
-        <v>0</v>
+        <v>0.7648983506861915</v>
       </c>
       <c r="Q9" s="0">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="0">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="0">
-        <v>0</v>
+        <v>0.77783794354259927</v>
       </c>
       <c r="AO9" s="0">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="0">
-        <v>0</v>
+        <v>0.83749471846330747</v>
       </c>
       <c r="AU9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="0">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="0">
-        <v>0</v>
+        <v>0.50874376840095203</v>
       </c>
       <c r="AC10" s="0">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="AF10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="0">
         <v>0</v>
       </c>
       <c r="AH10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="0">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="0">
-        <v>0</v>
+        <v>0.77668373143346092</v>
       </c>
       <c r="AT10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>0</v>
+        <v>0.62953933285409236</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.62647043460805873</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.62798061133987892</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="0">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0</v>
+        <v>0.58342340740363907</v>
       </c>
       <c r="AR11" s="0">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="BI11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK11" s="0">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="0">
-        <v>0</v>
+        <v>0.90065493971144139</v>
       </c>
       <c r="BN11" s="0">
         <v>0</v>
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
+        <v>0.82086528859565089</v>
       </c>
       <c r="C12" s="0">
         <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>0</v>
+        <v>0.95784517020094384</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.69154574791052159</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.68726344614641921</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2496,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="AI12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="0">
         <v>0</v>
       </c>
       <c r="AK12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="0">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="BO12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="0">
         <v>0</v>
@@ -2627,22 +2627,22 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.78499224464105932</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.96064885085604035</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.711609650857839</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="AG13" s="0">
-        <v>0</v>
+        <v>0.65860894931814373</v>
       </c>
       <c r="AH13" s="0">
         <v>0</v>
       </c>
       <c r="AI13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="0">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>0</v>
+        <v>0.84040251561918322</v>
       </c>
       <c r="AU13" s="0">
         <v>0</v>
@@ -2759,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="BB13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="0">
         <v>0</v>
       </c>
       <c r="BD13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="0">
         <v>0</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="BI13" s="0">
-        <v>0</v>
+        <v>0.86321615753904879</v>
       </c>
       <c r="BJ13" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>0</v>
+        <v>0.57797844805650911</v>
       </c>
       <c r="Y14" s="0">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>0</v>
+        <v>0.68217787692398812</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="0">
-        <v>0</v>
+        <v>0.84140848201377394</v>
       </c>
       <c r="BA14" s="0">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="BD14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="0">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="BH14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.86950027973469313</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="0">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="0">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="0">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="BB15" s="0">
-        <v>0</v>
+        <v>0.69674364187853555</v>
       </c>
       <c r="BC15" s="0">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>0</v>
+        <v>0.63015987124053163</v>
       </c>
       <c r="BH15" s="0">
         <v>0</v>
       </c>
       <c r="BI15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ15" s="0">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>0</v>
+        <v>0.50130171083790764</v>
       </c>
       <c r="J16" s="0">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="0">
-        <v>0</v>
+        <v>0.66620399868817826</v>
       </c>
       <c r="AD16" s="0">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="0">
         <v>0</v>
@@ -3338,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="AO16" s="0">
-        <v>0</v>
+        <v>0.87367306014909007</v>
       </c>
       <c r="AP16" s="0">
         <v>0</v>
       </c>
       <c r="AQ16" s="0">
-        <v>0</v>
+        <v>0.55779367878026898</v>
       </c>
       <c r="AR16" s="0">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="BI16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ16" s="0">
         <v>0</v>
@@ -3407,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM16" s="0">
-        <v>0</v>
+        <v>0.91903701502936253</v>
       </c>
       <c r="BN16" s="0">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="0">
-        <v>0</v>
+        <v>0.87541892670879506</v>
       </c>
     </row>
     <row r="17">
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>0</v>
+        <v>0.61763818029394368</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.57460962571103635</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
       </c>
       <c r="U17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="0">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="BB17" s="0">
-        <v>0</v>
+        <v>0.86373612735124139</v>
       </c>
       <c r="BC17" s="0">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="BG17" s="0">
-        <v>0</v>
+        <v>0.88523073517414907</v>
       </c>
       <c r="BH17" s="0">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.6021822251154243</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.99216642448949965</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="0">
-        <v>0</v>
+        <v>0.62219146061300123</v>
       </c>
       <c r="AF18" s="0">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="0">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="BM18" s="0">
-        <v>0</v>
+        <v>0.65180554435868143</v>
       </c>
       <c r="BN18" s="0">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>0</v>
+        <v>0.74437412247176082</v>
       </c>
       <c r="F19" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.63736521543033242</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3905,13 +3905,13 @@
         <v>0</v>
       </c>
       <c r="X19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="0">
-        <v>0</v>
+        <v>0.5909566090412961</v>
       </c>
       <c r="AA19" s="0">
         <v>0</v>
@@ -3920,13 +3920,13 @@
         <v>0</v>
       </c>
       <c r="AC19" s="0">
-        <v>0</v>
+        <v>0.8452670291344544</v>
       </c>
       <c r="AD19" s="0">
         <v>0</v>
       </c>
       <c r="AE19" s="0">
-        <v>0</v>
+        <v>0.75856126186664941</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AO19" s="0">
-        <v>0</v>
+        <v>0.785559848591457</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AS19" s="0">
-        <v>0</v>
+        <v>0.73445020783790005</v>
       </c>
       <c r="AT19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="0">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AW19" s="0">
-        <v>0</v>
+        <v>0.65958260237045074</v>
       </c>
       <c r="AX19" s="0">
         <v>0</v>
@@ -4001,10 +4001,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="0">
-        <v>0</v>
+        <v>0.65558029533643036</v>
       </c>
       <c r="BE19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="0">
         <v>0</v>
@@ -4057,19 +4057,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="0">
-        <v>0</v>
+        <v>0.86160403465120572</v>
       </c>
       <c r="G20" s="0">
         <v>0</v>
       </c>
       <c r="H20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="0">
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.94672151800839821</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.89039393872770023</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="0">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AV20" s="0">
-        <v>0</v>
+        <v>0.82051834004663848</v>
       </c>
       <c r="AW20" s="0">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="0">
-        <v>0</v>
+        <v>0.85113853159728703</v>
       </c>
       <c r="BF20" s="0">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="BH20" s="0">
-        <v>0</v>
+        <v>0.91184070414922713</v>
       </c>
       <c r="BI20" s="0">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="0">
-        <v>1</v>
+        <v>0.65460653165596028</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="0">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="0">
-        <v>0</v>
+        <v>0.95782788645339689</v>
       </c>
       <c r="AJ21" s="0">
         <v>0</v>
@@ -4380,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="AS21" s="0">
-        <v>0</v>
+        <v>0.5322837741229941</v>
       </c>
       <c r="AT21" s="0">
         <v>0</v>
       </c>
       <c r="AU21" s="0">
-        <v>0</v>
+        <v>0.97384155835075936</v>
       </c>
       <c r="AV21" s="0">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="0">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="0">
-        <v>0</v>
+        <v>0.61371363713696325</v>
       </c>
       <c r="AM22" s="0">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="0">
-        <v>0</v>
+        <v>0.92394843695634898</v>
       </c>
       <c r="AQ22" s="0">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="BH22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="0">
         <v>0</v>
       </c>
       <c r="BJ22" s="0">
-        <v>0</v>
+        <v>0.94975913189967276</v>
       </c>
       <c r="BK22" s="0">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="BP22" s="0">
-        <v>1</v>
+        <v>0.8442212968056968</v>
       </c>
     </row>
     <row r="23">
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.52358490519862211</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4753,13 +4753,13 @@
         <v>0</v>
       </c>
       <c r="AF23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="0">
         <v>0</v>
       </c>
       <c r="AH23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="0">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="0">
         <v>0</v>
@@ -4834,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="BG23" s="0">
-        <v>0</v>
+        <v>0.55955474541602779</v>
       </c>
       <c r="BH23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="0">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="BM23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="0">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>0</v>
+        <v>0.69696415198683515</v>
       </c>
       <c r="O24" s="0">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.68400306659200538</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0</v>
+        <v>0.6226047593517039</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="0">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="0">
-        <v>0</v>
+        <v>0.57786341761320603</v>
       </c>
       <c r="AN24" s="0">
         <v>0</v>
@@ -5007,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0</v>
+        <v>0.79559764873276628</v>
       </c>
       <c r="AW24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="0">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="BD24" s="0">
-        <v>0</v>
+        <v>0.76053112864775163</v>
       </c>
       <c r="BE24" s="0">
-        <v>0</v>
+        <v>0.99266859257258777</v>
       </c>
       <c r="BF24" s="0">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="0">
-        <v>0</v>
+        <v>0.88572561778566228</v>
       </c>
       <c r="C25" s="0">
         <v>0</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="0">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>0</v>
+        <v>0.52021140109092767</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5249,13 +5249,13 @@
         <v>0</v>
       </c>
       <c r="BH25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="0">
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK25" s="0">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="BM25" s="0">
-        <v>0</v>
+        <v>0.8639463725896761</v>
       </c>
       <c r="BN25" s="0">
         <v>0</v>
@@ -5293,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="0">
-        <v>0</v>
+        <v>0.55869060108360591</v>
       </c>
       <c r="H26" s="0">
         <v>0</v>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="0">
-        <v>0</v>
+        <v>0.61945169592079041</v>
       </c>
       <c r="T26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>0.52565089979744561</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5395,13 +5395,13 @@
         <v>0</v>
       </c>
       <c r="AN26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="0">
         <v>0</v>
       </c>
       <c r="AP26" s="0">
-        <v>0</v>
+        <v>0.98839998913835692</v>
       </c>
       <c r="AQ26" s="0">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="0">
-        <v>0</v>
+        <v>0.94513767404890481</v>
       </c>
       <c r="BB26" s="0">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ26" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0</v>
+        <v>0.56934035172622743</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5658,13 +5658,13 @@
         <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>0</v>
+        <v>0.75226755527300648</v>
       </c>
       <c r="BH27" s="0">
         <v>0</v>
       </c>
       <c r="BI27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ27" s="0">
         <v>0</v>
@@ -5693,19 +5693,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0">
-        <v>0</v>
+        <v>0.86999522568477672</v>
       </c>
       <c r="D28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>0</v>
+        <v>0.9631601557256233</v>
       </c>
       <c r="G28" s="0">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="0">
-        <v>0</v>
+        <v>0.99794695538076661</v>
       </c>
       <c r="K28" s="0">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="0">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="AY28" s="0">
-        <v>0</v>
+        <v>0.62269505901095035</v>
       </c>
       <c r="AZ28" s="0">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="BE28" s="0">
-        <v>0</v>
+        <v>0.56461860906003247</v>
       </c>
       <c r="BF28" s="0">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="0">
-        <v>0</v>
+        <v>0.61881145564154671</v>
       </c>
       <c r="Q29" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>0</v>
+        <v>0.67034166463501965</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>0</v>
+        <v>0.5596185260758495</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="AW30" s="0">
-        <v>0</v>
+        <v>0.96097274428780821</v>
       </c>
       <c r="AX30" s="0">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="0">
-        <v>1</v>
+        <v>0.65006954381576632</v>
       </c>
       <c r="BI30" s="0">
         <v>0</v>
@@ -6308,22 +6308,22 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0</v>
+        <v>0.61950929689124923</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
       </c>
       <c r="C31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
       </c>
       <c r="E31" s="0">
-        <v>0</v>
+        <v>0.99120123522526926</v>
       </c>
       <c r="F31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0">
         <v>0</v>
@@ -6359,10 +6359,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="0">
-        <v>0</v>
+        <v>0.60228314373485303</v>
       </c>
       <c r="S31" s="0">
-        <v>0</v>
+        <v>0.59982439892540851</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="AO31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31" s="0">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="0">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="BP31" s="0">
-        <v>0</v>
+        <v>0.6158788082800577</v>
       </c>
     </row>
     <row r="32">
@@ -6520,16 +6520,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="0">
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="0">
         <v>0</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0</v>
+        <v>0.96692357488735836</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6613,13 +6613,13 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.60946127060834798</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
       </c>
       <c r="AJ32" s="0">
-        <v>0</v>
+        <v>0.66137186018656047</v>
       </c>
       <c r="AK32" s="0">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="BJ32" s="0">
-        <v>0</v>
+        <v>0.67703672385744573</v>
       </c>
       <c r="BK32" s="0">
         <v>0</v>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="0">
-        <v>0</v>
+        <v>0.70596270127560445</v>
       </c>
       <c r="N33" s="0">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="AM33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="0">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="AX33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="0">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="BG33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH33" s="0">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="BO33" s="0">
-        <v>0</v>
+        <v>0.53477429280130784</v>
       </c>
       <c r="BP33" s="0">
         <v>0</v>
@@ -6950,10 +6950,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="0">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.56359930546681825</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.57688636546925665</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="0">
-        <v>0</v>
+        <v>0.98581504467820791</v>
       </c>
       <c r="AQ34" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>0</v>
+        <v>0.71245928199294539</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="BM34" s="0">
-        <v>0</v>
+        <v>0.89766692876346921</v>
       </c>
       <c r="BN34" s="0">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="0">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>0</v>
+        <v>0.88256699316051646</v>
       </c>
       <c r="V35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="AR35" s="0">
-        <v>0</v>
+        <v>0.62527439744677404</v>
       </c>
       <c r="AS35" s="0">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7324,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="BM35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>1</v>
+        <v>0.75353796592191713</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="0">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="0">
         <v>0</v>
@@ -7431,13 +7431,13 @@
         <v>0</v>
       </c>
       <c r="AF36" s="0">
-        <v>0</v>
+        <v>0.70756874436351191</v>
       </c>
       <c r="AG36" s="0">
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.8735210262088331</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="0">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="BP36" s="0">
-        <v>0</v>
+        <v>0.99485595967748552</v>
       </c>
     </row>
     <row r="37">
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.67635041341848168</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="AX37" s="0">
-        <v>0</v>
+        <v>0.85816058232773407</v>
       </c>
       <c r="AY37" s="0">
         <v>0</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="BC37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD37" s="0">
         <v>0</v>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="0">
-        <v>0</v>
+        <v>0.70764589759735441</v>
       </c>
       <c r="W38" s="0">
         <v>0</v>
@@ -7858,19 +7858,19 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.80441365220982775</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
       </c>
       <c r="AO38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="0">
-        <v>0</v>
+        <v>0.88795028470803539</v>
       </c>
       <c r="AS38" s="0">
         <v>0</v>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="BB38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC38" s="0">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="0">
-        <v>0</v>
+        <v>0.98729376573589023</v>
       </c>
       <c r="F39" s="0">
         <v>0</v>
@@ -8022,10 +8022,10 @@
         <v>0</v>
       </c>
       <c r="W39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="0">
-        <v>0</v>
+        <v>0.52910029485703236</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AU39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="0">
         <v>0</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="BG39" s="0">
-        <v>0</v>
+        <v>0.67255426375227179</v>
       </c>
       <c r="BH39" s="0">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="BO39" s="0">
-        <v>0</v>
+        <v>0.54061277842929034</v>
       </c>
       <c r="BP39" s="0">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="0">
-        <v>0</v>
+        <v>0.77765216831040496</v>
       </c>
       <c r="C40" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>0</v>
+        <v>0.64884580903188271</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="0">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="0">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="0">
-        <v>0</v>
+        <v>0.82484710894469027</v>
       </c>
       <c r="BB40" s="0">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="BF40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="0">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN40" s="0">
         <v>0</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="0">
-        <v>0</v>
+        <v>0.69801406046756154</v>
       </c>
       <c r="Q41" s="0">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="0">
-        <v>0</v>
+        <v>0.52584653047718222</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
@@ -8458,10 +8458,10 @@
         <v>0</v>
       </c>
       <c r="AE41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8479,10 +8479,10 @@
         <v>0</v>
       </c>
       <c r="AL41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="BE41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF41" s="0">
         <v>0</v>
@@ -8563,13 +8563,13 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>0</v>
+        <v>0.78680116352413032</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
       </c>
       <c r="BP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -8589,10 +8589,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0</v>
+        <v>0.95526241659065292</v>
       </c>
       <c r="G42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="0">
-        <v>0</v>
+        <v>0.5997419781038964</v>
       </c>
       <c r="O42" s="0">
         <v>0</v>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="0">
-        <v>0</v>
+        <v>0.83806343700135677</v>
       </c>
       <c r="W42" s="0">
         <v>0</v>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="0">
-        <v>0</v>
+        <v>0.94976034252074948</v>
       </c>
       <c r="AA42" s="0">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="AH42" s="0">
-        <v>0</v>
+        <v>0.51644896645626659</v>
       </c>
       <c r="AI42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="0">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="BH42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI42" s="0">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="0">
-        <v>0</v>
+        <v>0.59942205363487133</v>
       </c>
       <c r="L43" s="0">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="0">
-        <v>0</v>
+        <v>0.94399836535183246</v>
       </c>
       <c r="Q43" s="0">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>0</v>
+        <v>0.83456184379599363</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8900,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="BF43" s="0">
-        <v>0</v>
+        <v>0.99592784300150861</v>
       </c>
       <c r="BG43" s="0">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="0">
-        <v>1</v>
+        <v>0.64022614397140098</v>
       </c>
       <c r="I44" s="0">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="0">
-        <v>0</v>
+        <v>0.80738323390149835</v>
       </c>
       <c r="AJ44" s="0">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="0">
-        <v>0</v>
+        <v>0.80248528528125518</v>
       </c>
       <c r="AM44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="BI44" s="0">
-        <v>0</v>
+        <v>0.5824054435849888</v>
       </c>
       <c r="BJ44" s="0">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="BM44" s="0">
-        <v>0</v>
+        <v>0.99077642377582475</v>
       </c>
       <c r="BN44" s="0">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="0">
-        <v>0</v>
+        <v>0.98535908294806229</v>
       </c>
       <c r="K45" s="0">
         <v>0</v>
@@ -9246,13 +9246,13 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>0</v>
+        <v>0.69741310074351759</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
       </c>
       <c r="U45" s="0">
-        <v>0</v>
+        <v>0.73313282544790148</v>
       </c>
       <c r="V45" s="0">
         <v>0</v>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.55540042884975027</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="BB45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="0">
-        <v>0</v>
+        <v>0.80960026622999448</v>
       </c>
       <c r="J46" s="0">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>0</v>
+        <v>0.56371985793780766</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="BG46" s="0">
-        <v>0</v>
+        <v>0.90016531349516182</v>
       </c>
       <c r="BH46" s="0">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="BN46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO46" s="0">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="0">
-        <v>0</v>
+        <v>0.53737412506968063</v>
       </c>
       <c r="V47" s="0">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.62104999996321775</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.83322740729139588</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="0">
-        <v>0</v>
+        <v>0.64588504748990672</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>0</v>
+        <v>0.96521051831757032</v>
       </c>
       <c r="U48" s="0">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>0</v>
+        <v>0.95114343312243921</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>0</v>
+        <v>0.87323315030285298</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -9957,13 +9957,13 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.77303029748548968</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
       </c>
       <c r="AZ48" s="0">
-        <v>0</v>
+        <v>0.74191437197172128</v>
       </c>
       <c r="BA48" s="0">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="BP48" s="0">
-        <v>0</v>
+        <v>0.79526573965198322</v>
       </c>
     </row>
     <row r="49">
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="0">
-        <v>0</v>
+        <v>0.8659695252219507</v>
       </c>
       <c r="T49" s="0">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="0">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="0">
-        <v>0</v>
+        <v>0.69613879131293666</v>
       </c>
       <c r="AE49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.73841295720461053</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10175,13 +10175,13 @@
         <v>0</v>
       </c>
       <c r="BB49" s="0">
-        <v>0</v>
+        <v>0.58883789601451153</v>
       </c>
       <c r="BC49" s="0">
         <v>0</v>
       </c>
       <c r="BD49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE49" s="0">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO49" s="0">
         <v>0</v>
@@ -10228,13 +10228,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>0</v>
+        <v>0.53487274292665554</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
       </c>
       <c r="E50" s="0">
-        <v>0</v>
+        <v>0.93493970772431778</v>
       </c>
       <c r="F50" s="0">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="AG50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="0">
         <v>0</v>
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="0">
-        <v>0</v>
+        <v>0.56123885914658578</v>
       </c>
       <c r="AL50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.57265835857414105</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="BI50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ50" s="0">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>0</v>
+        <v>0.51540623528883167</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="0">
-        <v>0</v>
+        <v>0.98502338476283957</v>
       </c>
       <c r="AC51" s="0">
         <v>0</v>
@@ -10572,22 +10572,22 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.96861556618775446</v>
       </c>
       <c r="BB51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC51" s="0">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="0">
-        <v>0</v>
+        <v>0.76254552549208587</v>
       </c>
       <c r="O52" s="0">
         <v>0</v>
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="0">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="AV52" s="0">
-        <v>0</v>
+        <v>0.72191391288891404</v>
       </c>
       <c r="AW52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="BN52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO52" s="0">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>0</v>
+        <v>0.74395226029424277</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="0">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>0</v>
+        <v>0.66263522717104351</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.70962110281895585</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="BE53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF53" s="0">
         <v>0</v>
@@ -11038,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="BO53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP53" s="0">
         <v>0</v>
@@ -11082,19 +11082,19 @@
         <v>0</v>
       </c>
       <c r="M54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" s="0">
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>0</v>
+        <v>0.61032612738311587</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>0</v>
+        <v>0.53012614619660225</v>
       </c>
       <c r="R54" s="0">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="0">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="0">
         <v>0</v>
@@ -11190,13 +11190,13 @@
         <v>0</v>
       </c>
       <c r="AW54" s="0">
-        <v>0</v>
+        <v>0.5492308665702369</v>
       </c>
       <c r="AX54" s="0">
         <v>0</v>
       </c>
       <c r="AY54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="0">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="0">
-        <v>0</v>
+        <v>0.81388526243621517</v>
       </c>
       <c r="H55" s="0">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="0">
-        <v>0</v>
+        <v>0.86513138235492293</v>
       </c>
       <c r="Z55" s="0">
         <v>0</v>
@@ -11354,13 +11354,13 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
       </c>
       <c r="AK55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.96163464868299287</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="BK55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL55" s="0">
         <v>0</v>
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="0">
-        <v>0</v>
+        <v>0.85265302381906638</v>
       </c>
       <c r="H56" s="0">
         <v>0</v>
@@ -11494,10 +11494,10 @@
         <v>0</v>
       </c>
       <c r="M56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="0">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="0">
-        <v>0</v>
+        <v>0.53222549058644586</v>
       </c>
       <c r="T56" s="0">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="0">
-        <v>0</v>
+        <v>0.5703272137303097</v>
       </c>
       <c r="Y56" s="0">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="AW56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.96014395511135575</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11718,10 +11718,10 @@
         <v>0</v>
       </c>
       <c r="S57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>0</v>
+        <v>0.73816212641672596</v>
       </c>
       <c r="U57" s="0">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0">
-        <v>0</v>
+        <v>0.83306211952746301</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="0">
-        <v>0</v>
+        <v>0.824679985930167</v>
       </c>
       <c r="AC57" s="0">
         <v>0</v>
@@ -11784,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="AO57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP57" s="0">
         <v>0</v>
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="0">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" s="0">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="AN58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="0">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="0">
-        <v>0</v>
+        <v>0.93547587041914815</v>
       </c>
       <c r="AR58" s="0">
         <v>0</v>
@@ -12044,10 +12044,10 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.63709643717045039</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>1</v>
+        <v>0.58619286030773043</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="0">
         <v>0</v>
@@ -12118,13 +12118,13 @@
         <v>0</v>
       </c>
       <c r="O59" s="0">
-        <v>0</v>
+        <v>0.98666884003661193</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0</v>
+        <v>0.63275835918372714</v>
       </c>
       <c r="R59" s="0">
         <v>0</v>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="0">
-        <v>0</v>
+        <v>0.84376126364458925</v>
       </c>
       <c r="X59" s="0">
         <v>0</v>
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="0">
-        <v>0</v>
+        <v>0.52752040069181172</v>
       </c>
       <c r="AB59" s="0">
         <v>0</v>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="AG59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="0">
         <v>0</v>
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AM59" s="0">
-        <v>0</v>
+        <v>0.74711878913027752</v>
       </c>
       <c r="AN59" s="0">
         <v>0</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AT59" s="0">
-        <v>0</v>
+        <v>0.71810219969535893</v>
       </c>
       <c r="AU59" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.70417729382194949</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12265,10 +12265,10 @@
         <v>0</v>
       </c>
       <c r="BL59" s="0">
-        <v>0</v>
+        <v>0.64585303537549077</v>
       </c>
       <c r="BM59" s="0">
-        <v>0</v>
+        <v>0.75882188139432027</v>
       </c>
       <c r="BN59" s="0">
         <v>0</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="0">
-        <v>0</v>
+        <v>0.64706209148801863</v>
       </c>
       <c r="C60" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12303,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="0">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="0">
         <v>0</v>
@@ -12339,22 +12339,22 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>0</v>
+        <v>0.85385472054098255</v>
       </c>
       <c r="U60" s="0">
         <v>0</v>
       </c>
       <c r="V60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="0">
         <v>0</v>
       </c>
       <c r="Y60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="AD60" s="0">
-        <v>1</v>
+        <v>0.9451212088691453</v>
       </c>
       <c r="AE60" s="0">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12465,13 +12465,13 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.88915753198585068</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>0</v>
+        <v>0.76314529208008564</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12518,22 +12518,22 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
       </c>
       <c r="M61" s="0">
-        <v>0</v>
+        <v>0.70499760992063831</v>
       </c>
       <c r="N61" s="0">
         <v>0</v>
       </c>
       <c r="O61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="0">
         <v>0</v>
@@ -12563,10 +12563,10 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="0">
         <v>0</v>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="AR61" s="0">
-        <v>0</v>
+        <v>0.7128556474310811</v>
       </c>
       <c r="AS61" s="0">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="AX61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.51195057918144948</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12703,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="0">
-        <v>0</v>
+        <v>0.74975495212575904</v>
       </c>
       <c r="E62" s="0">
         <v>0</v>
@@ -12724,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="0">
         <v>0</v>
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="0">
-        <v>0</v>
+        <v>0.75798140216219667</v>
       </c>
       <c r="W62" s="0">
         <v>0</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="0">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="0">
-        <v>0</v>
+        <v>0.94717667151813578</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.95113906937519954</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12909,10 +12909,10 @@
         <v>0</v>
       </c>
       <c r="D63" s="0">
-        <v>0</v>
+        <v>0.85521885040686851</v>
       </c>
       <c r="E63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="0">
         <v>0</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="BC63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>1</v>
+        <v>0.82240497156025916</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.55186415196215088</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -13124,13 +13124,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="0">
         <v>0</v>
@@ -13280,10 +13280,10 @@
         <v>0</v>
       </c>
       <c r="BG64" s="0">
-        <v>0</v>
+        <v>0.57191892751475493</v>
       </c>
       <c r="BH64" s="0">
-        <v>0</v>
+        <v>0.80750005925958535</v>
       </c>
       <c r="BI64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.72328467984263467</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="0">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="0">
-        <v>0</v>
+        <v>0.99319721178291909</v>
       </c>
       <c r="L65" s="0">
         <v>0</v>
@@ -13357,13 +13357,13 @@
         <v>0</v>
       </c>
       <c r="P65" s="0">
-        <v>0</v>
+        <v>0.86334090534113295</v>
       </c>
       <c r="Q65" s="0">
         <v>0</v>
       </c>
       <c r="R65" s="0">
-        <v>0</v>
+        <v>0.83318952423061554</v>
       </c>
       <c r="S65" s="0">
         <v>0</v>
@@ -13378,13 +13378,13 @@
         <v>0</v>
       </c>
       <c r="W65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X65" s="0">
         <v>0</v>
       </c>
       <c r="Y65" s="0">
-        <v>0</v>
+        <v>0.96358358469075445</v>
       </c>
       <c r="Z65" s="0">
         <v>0</v>
@@ -13411,10 +13411,10 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0</v>
+        <v>0.52723856704320904</v>
       </c>
       <c r="AI65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="0">
         <v>0</v>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="AN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="0">
         <v>0</v>
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="AR65" s="0">
-        <v>0</v>
+        <v>0.50292867748523662</v>
       </c>
       <c r="AS65" s="0">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="BG65" s="0">
-        <v>0</v>
+        <v>0.91346447262331587</v>
       </c>
       <c r="BH65" s="0">
         <v>0</v>
@@ -13501,16 +13501,16 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.65495831175163144</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>1</v>
+        <v>0.92761339793005404</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0</v>
+        <v>0.75986224862149232</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="0">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="AW66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="0">
         <v>0</v>
@@ -13671,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="AZ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13736,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="0">
         <v>0</v>
@@ -13757,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" s="0">
         <v>0</v>
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="AG67" s="0">
-        <v>0</v>
+        <v>0.8429391237617323</v>
       </c>
       <c r="AH67" s="0">
         <v>0</v>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="AM67" s="0">
-        <v>0</v>
+        <v>0.72033692773356117</v>
       </c>
       <c r="AN67" s="0">
         <v>0</v>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="BA67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.73871405636917331</v>
       </c>
     </row>
     <row r="68">
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="0">
-        <v>0</v>
+        <v>0.78097165252868894</v>
       </c>
       <c r="Q68" s="0">
         <v>0</v>
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="0">
-        <v>1</v>
+        <v>0.54300723324488875</v>
       </c>
       <c r="W68" s="0">
         <v>0</v>
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="0">
-        <v>0</v>
+        <v>0.52427577657058211</v>
       </c>
       <c r="AF68" s="0">
         <v>0</v>
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="0">
-        <v>0</v>
+        <v>0.92672489273023961</v>
       </c>
       <c r="AK68" s="0">
         <v>0</v>
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="AO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP68" s="0">
         <v>0</v>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="AV68" s="0">
-        <v>0</v>
+        <v>0.87121735400087097</v>
       </c>
       <c r="AW68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.50392510253585421</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject10.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject10.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.57772098052614185</v>
+        <v>0.63580578533769971</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -218,7 +218,7 @@
         <v>0</v>
       </c>
       <c r="AE1" s="0">
-        <v>0.55588402838376794</v>
+        <v>0.61950929689124923</v>
       </c>
       <c r="AF1" s="0">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.52555744240918956</v>
+        <v>0.86999522568477672</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="AV3" s="0">
-        <v>0.5762531206922874</v>
+        <v>0.64588504748990672</v>
       </c>
       <c r="AW3" s="0">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>0.8731912041985217</v>
+        <v>0.95784517020094384</v>
       </c>
       <c r="M4" s="0">
         <v>0</v>
@@ -929,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="0">
-        <v>0.72340722068845209</v>
+        <v>0.74975495212575904</v>
       </c>
       <c r="BK4" s="0">
-        <v>0.83652838673076546</v>
+        <v>0.85521885040686851</v>
       </c>
       <c r="BL4" s="0">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="0">
-        <v>0.59298243981927412</v>
+        <v>0.74437412247176082</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.82065650290429071</v>
+        <v>0.99120123522526926</v>
       </c>
       <c r="AF5" s="0">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="0">
-        <v>0.88288140758701239</v>
+        <v>0.98729376573589023</v>
       </c>
       <c r="AN5" s="0">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="0">
-        <v>0.59172427950348694</v>
+        <v>0.93493970772431778</v>
       </c>
       <c r="AY5" s="0">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="0">
-        <v>0.60946630716141703</v>
+        <v>0.86160403465120572</v>
       </c>
       <c r="U6" s="0">
         <v>0.75057999664701391</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.94428206821235716</v>
+        <v>0.9631601557256233</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0.79637088532279354</v>
+        <v>0.95526241659065292</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="BC7" s="0">
-        <v>0.59061014199213269</v>
+        <v>0.81388526243621517</v>
       </c>
       <c r="BD7" s="0">
-        <v>0.63370972352926813</v>
+        <v>0.85265302381906638</v>
       </c>
       <c r="BE7" s="0">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>0.76379480726513105</v>
+        <v>0.80171983680901149</v>
       </c>
       <c r="E8" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0.5366054924335244</v>
+        <v>0.70157923852787518</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>0.55741926685827115</v>
+        <v>0.64022614397140098</v>
       </c>
       <c r="AS8" s="0">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>0.51538665659201943</v>
+        <v>0.74541349964024528</v>
       </c>
       <c r="G9" s="0">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.50874376840095203</v>
+        <v>0.99794695538076661</v>
       </c>
       <c r="AC10" s="0">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="0">
-        <v>0.77668373143346092</v>
+        <v>0.98535908294806229</v>
       </c>
       <c r="AT10" s="0">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>0.62953933285409236</v>
+        <v>0.93439944339703551</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.62647043460805873</v>
+        <v>0.69154574791052159</v>
       </c>
       <c r="M11" s="0">
-        <v>0.62798061133987892</v>
+        <v>0.78499224464105932</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0.58342340740363907</v>
+        <v>0.59942205363487133</v>
       </c>
       <c r="AR11" s="0">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="0">
-        <v>0.90065493971144139</v>
+        <v>0.99319721178291909</v>
       </c>
       <c r="BN11" s="0">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="0">
-        <v>0.82086528859565089</v>
+        <v>0.89033605002675942</v>
       </c>
       <c r="C12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.68726344614641921</v>
+        <v>0.96064885085604035</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0.711609650857839</v>
+        <v>0.86950027973469313</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="0">
-        <v>0.65860894931814373</v>
+        <v>0.70596270127560445</v>
       </c>
       <c r="AH13" s="0">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>0.57797844805650911</v>
+        <v>0.69696415198683515</v>
       </c>
       <c r="Y14" s="0">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>0.63015987124053163</v>
+        <v>0.98666884003661193</v>
       </c>
       <c r="BH15" s="0">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>0.50130171083790764</v>
+        <v>0.7648983506861915</v>
       </c>
       <c r="J16" s="0">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="0">
-        <v>0.55779367878026898</v>
+        <v>0.94399836535183246</v>
       </c>
       <c r="AR16" s="0">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>0.61763818029394368</v>
+        <v>0.8174090806154275</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.57460962571103635</v>
+        <v>0.6021822251154243</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="BM18" s="0">
-        <v>0.65180554435868143</v>
+        <v>0.83318952423061554</v>
       </c>
       <c r="BN18" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.63736521543033242</v>
+        <v>0.89039393872770023</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="0">
-        <v>0.5909566090412961</v>
+        <v>0.61945169592079041</v>
       </c>
       <c r="AA19" s="0">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AW19" s="0">
-        <v>0.65958260237045074</v>
+        <v>0.8659695252219507</v>
       </c>
       <c r="AX19" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.94672151800839821</v>
+        <v>0.99216642448949965</v>
       </c>
       <c r="S20" s="0">
         <v>0.89039393872770023</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AV20" s="0">
-        <v>0.82051834004663848</v>
+        <v>0.96521051831757032</v>
       </c>
       <c r="AW20" s="0">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="0">
-        <v>0.65460653165596028</v>
+        <v>0.75057999664701391</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="0">
-        <v>0.5322837741229941</v>
+        <v>0.73313282544790148</v>
       </c>
       <c r="AT21" s="0">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="0">
-        <v>0.61371363713696325</v>
+        <v>0.70764589759735441</v>
       </c>
       <c r="AM22" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.52358490519862211</v>
+        <v>0.68400306659200538</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="BG23" s="0">
-        <v>0.55955474541602779</v>
+        <v>0.84376126364458925</v>
       </c>
       <c r="BH23" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0.79559764873276628</v>
+        <v>0.95114343312243921</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="0">
-        <v>0.88572561778566228</v>
+        <v>0.96430097540057458</v>
       </c>
       <c r="C25" s="0">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>0.52021140109092767</v>
+        <v>0.86513138235492293</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="BM25" s="0">
-        <v>0.8639463725896761</v>
+        <v>0.96358358469075445</v>
       </c>
       <c r="BN25" s="0">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="0">
-        <v>0.55869060108360591</v>
+        <v>0.57399486759998242</v>
       </c>
       <c r="H26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.52565089979744561</v>
+        <v>0.6226047593517039</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0.56934035172622743</v>
+        <v>0.83456184379599363</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="AY28" s="0">
-        <v>0.62269505901095035</v>
+        <v>0.98502338476283957</v>
       </c>
       <c r="AZ28" s="0">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="BE28" s="0">
-        <v>0.56461860906003247</v>
+        <v>0.824679985930167</v>
       </c>
       <c r="BF28" s="0">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="0">
-        <v>0.61881145564154671</v>
+        <v>0.66620399868817826</v>
       </c>
       <c r="Q29" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>0.67034166463501965</v>
+        <v>0.8452670291344544</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.5596185260758495</v>
+        <v>0.96692357488735836</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="0">
-        <v>0.65006954381576632</v>
+        <v>0.9451212088691453</v>
       </c>
       <c r="BI30" s="0">
         <v>0</v>
@@ -6359,10 +6359,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="0">
-        <v>0.60228314373485303</v>
+        <v>0.62219146061300123</v>
       </c>
       <c r="S31" s="0">
-        <v>0.59982439892540851</v>
+        <v>0.75856126186664941</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="0">
-        <v>0.66137186018656047</v>
+        <v>0.70756874436351191</v>
       </c>
       <c r="AK32" s="0">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="BJ32" s="0">
-        <v>0.67703672385744573</v>
+        <v>0.94717667151813578</v>
       </c>
       <c r="BK32" s="0">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="BO33" s="0">
-        <v>0.53477429280130784</v>
+        <v>0.8429391237617323</v>
       </c>
       <c r="BP33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.56359930546681825</v>
+        <v>0.60946127060834798</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.57688636546925665</v>
+        <v>0.8735210262088331</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>0.71245928199294539</v>
+        <v>0.87323315030285298</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>0.88256699316051646</v>
+        <v>0.95782788645339689</v>
       </c>
       <c r="V35" s="0">
         <v>0</v>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="AR35" s="0">
-        <v>0.62527439744677404</v>
+        <v>0.80738323390149835</v>
       </c>
       <c r="AS35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0.75353796592191713</v>
+        <v>0.92761339793005404</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.67635041341848168</v>
+        <v>0.80441365220982775</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="0">
-        <v>0.52910029485703236</v>
+        <v>0.57786341761320603</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="BG39" s="0">
-        <v>0.67255426375227179</v>
+        <v>0.74711878913027752</v>
       </c>
       <c r="BH39" s="0">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="BO39" s="0">
-        <v>0.54061277842929034</v>
+        <v>0.72033692773356117</v>
       </c>
       <c r="BP39" s="0">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="0">
-        <v>0.77765216831040496</v>
+        <v>0.93164200996531576</v>
       </c>
       <c r="C40" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>0.64884580903188271</v>
+        <v>0.77783794354259927</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="0">
-        <v>0.69801406046756154</v>
+        <v>0.87367306014909007</v>
       </c>
       <c r="Q41" s="0">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="0">
-        <v>0.52584653047718222</v>
+        <v>0.785559848591457</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="0">
-        <v>0.5997419781038964</v>
+        <v>0.68217787692398812</v>
       </c>
       <c r="O42" s="0">
         <v>0</v>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="0">
-        <v>0.83806343700135677</v>
+        <v>0.92394843695634898</v>
       </c>
       <c r="W42" s="0">
         <v>0</v>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="0">
-        <v>0.94976034252074948</v>
+        <v>0.98839998913835692</v>
       </c>
       <c r="AA42" s="0">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="AH42" s="0">
-        <v>0.51644896645626659</v>
+        <v>0.98581504467820791</v>
       </c>
       <c r="AI42" s="0">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="0">
-        <v>0.80248528528125518</v>
+        <v>0.88795028470803539</v>
       </c>
       <c r="AM44" s="0">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="BI44" s="0">
-        <v>0.5824054435849888</v>
+        <v>0.7128556474310811</v>
       </c>
       <c r="BJ44" s="0">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>0.69741310074351759</v>
+        <v>0.73445020783790005</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.55540042884975027</v>
+        <v>0.62104999996321775</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="0">
-        <v>0.80960026622999448</v>
+        <v>0.83749471846330747</v>
       </c>
       <c r="J46" s="0">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>0.56371985793780766</v>
+        <v>0.84040251561918322</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="0">
-        <v>0.53737412506968063</v>
+        <v>0.97384155835075936</v>
       </c>
       <c r="V47" s="0">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="BP48" s="0">
-        <v>0.79526573965198322</v>
+        <v>0.87121735400087097</v>
       </c>
     </row>
     <row r="49">
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="0">
-        <v>0.69613879131293666</v>
+        <v>0.96097274428780821</v>
       </c>
       <c r="AE49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.73841295720461053</v>
+        <v>0.83322740729139588</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>0.53487274292665554</v>
+        <v>0.79613775929948882</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="0">
-        <v>0.56123885914658578</v>
+        <v>0.85816058232773407</v>
       </c>
       <c r="AL50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.57265835857414105</v>
+        <v>0.77303029748548968</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>0.51540623528883167</v>
+        <v>0.9620747574248929</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="0">
-        <v>0.76254552549208587</v>
+        <v>0.84140848201377394</v>
       </c>
       <c r="O52" s="0">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="AV52" s="0">
-        <v>0.72191391288891404</v>
+        <v>0.74191437197172128</v>
       </c>
       <c r="AW52" s="0">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>0.74395226029424277</v>
+        <v>0.94513767404890481</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>0.66263522717104351</v>
+        <v>0.82484710894469027</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.70962110281895585</v>
+        <v>0.96861556618775446</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11088,13 +11088,13 @@
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>0.61032612738311587</v>
+        <v>0.69674364187853555</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>0.53012614619660225</v>
+        <v>0.86373612735124139</v>
       </c>
       <c r="R54" s="0">
         <v>0</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="AW54" s="0">
-        <v>0.5492308665702369</v>
+        <v>0.58883789601451153</v>
       </c>
       <c r="AX54" s="0">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="0">
-        <v>0.53222549058644586</v>
+        <v>0.65558029533643036</v>
       </c>
       <c r="T56" s="0">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="0">
-        <v>0.5703272137303097</v>
+        <v>0.76053112864775163</v>
       </c>
       <c r="Y56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.96014395511135575</v>
+        <v>0.96163464868299287</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>0.73816212641672596</v>
+        <v>0.85113853159728703</v>
       </c>
       <c r="U57" s="0">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0">
-        <v>0.83306211952746301</v>
+        <v>0.99266859257258777</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="0">
-        <v>0.93547587041914815</v>
+        <v>0.99592784300150861</v>
       </c>
       <c r="AR58" s="0">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.63709643717045039</v>
+        <v>0.70417729382194949</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>0.58619286030773043</v>
+        <v>0.82240497156025916</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0.63275835918372714</v>
+        <v>0.88523073517414907</v>
       </c>
       <c r="R59" s="0">
         <v>0</v>
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="0">
-        <v>0.52752040069181172</v>
+        <v>0.75226755527300648</v>
       </c>
       <c r="AB59" s="0">
         <v>0</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AT59" s="0">
-        <v>0.71810219969535893</v>
+        <v>0.90016531349516182</v>
       </c>
       <c r="AU59" s="0">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0.64585303537549077</v>
       </c>
       <c r="BM59" s="0">
-        <v>0.75882188139432027</v>
+        <v>0.91346447262331587</v>
       </c>
       <c r="BN59" s="0">
         <v>0</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="0">
-        <v>0.64706209148801863</v>
+        <v>0.64909502129083918</v>
       </c>
       <c r="C60" s="0">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>0.85385472054098255</v>
+        <v>0.91184070414922713</v>
       </c>
       <c r="U60" s="0">
         <v>0</v>
@@ -12465,13 +12465,13 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.88915753198585068</v>
+        <v>0.95113906937519954</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>0.76314529208008564</v>
+        <v>0.80750005925958535</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="0">
-        <v>0.70499760992063831</v>
+        <v>0.86321615753904879</v>
       </c>
       <c r="N61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.51195057918144948</v>
+        <v>0.55186415196215088</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="0">
-        <v>0.75798140216219667</v>
+        <v>0.94975913189967276</v>
       </c>
       <c r="W62" s="0">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="BG64" s="0">
-        <v>0.57191892751475493</v>
+        <v>0.64585303537549077</v>
       </c>
       <c r="BH64" s="0">
         <v>0.80750005925958535</v>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="0">
-        <v>0.86334090534113295</v>
+        <v>0.91903701502936253</v>
       </c>
       <c r="Q65" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0.52723856704320904</v>
+        <v>0.89766692876346921</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="AR65" s="0">
-        <v>0.50292867748523662</v>
+        <v>0.99077642377582475</v>
       </c>
       <c r="AS65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.65495831175163144</v>
+        <v>0.72328467984263467</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0.75986224862149232</v>
+        <v>0.78680116352413032</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="0">
-        <v>0.78097165252868894</v>
+        <v>0.87541892670879506</v>
       </c>
       <c r="Q68" s="0">
         <v>0</v>
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="0">
-        <v>0.54300723324488875</v>
+        <v>0.8442212968056968</v>
       </c>
       <c r="W68" s="0">
         <v>0</v>
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="0">
-        <v>0.52427577657058211</v>
+        <v>0.6158788082800577</v>
       </c>
       <c r="AF68" s="0">
         <v>0</v>
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="0">
-        <v>0.92672489273023961</v>
+        <v>0.99485595967748552</v>
       </c>
       <c r="AK68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.50392510253585421</v>
+        <v>0.73871405636917331</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
